--- a/Comparaison.xlsx
+++ b/Comparaison.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23700" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="4380" yWindow="500" windowWidth="23700" windowHeight="16280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <si>
     <t>xls</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>python</t>
+  </si>
+  <si>
+    <t>p10</t>
+  </si>
+  <si>
+    <t>p10bis</t>
   </si>
 </sst>
 </file>
@@ -445,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D48"/>
+  <dimension ref="A3:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="131" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -491,7 +497,7 @@
         <v>5.99</v>
       </c>
       <c r="D5" s="6">
-        <f t="shared" ref="D5:D21" si="0">(C5-B5)/B5</f>
+        <f t="shared" ref="D5:D23" si="0">(C5-B5)/B5</f>
         <v>-2.6016260162601647E-2</v>
       </c>
     </row>
@@ -683,11 +689,11 @@
         <v>3.72</v>
       </c>
       <c r="C18">
-        <v>2.89</v>
+        <v>3.07</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="0"/>
-        <v>-0.22311827956989247</v>
+        <v>-0.17473118279569902</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -698,11 +704,11 @@
         <v>7.05</v>
       </c>
       <c r="C19">
-        <v>6.11</v>
+        <v>6.25</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="0"/>
-        <v>-0.13333333333333328</v>
+        <v>-0.11347517730496452</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -736,333 +742,393 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="7">
-        <f>AVERAGE(B4:B21)</f>
-        <v>5.8605555555555551</v>
-      </c>
-      <c r="C22" s="7">
-        <f>AVERAGE(C4:C21)</f>
-        <v>5.7383333333333333</v>
-      </c>
-      <c r="D22" s="4">
-        <f>AVERAGE(D4:D21)</f>
-        <v>-3.4558591909864052E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>4.91</v>
+      </c>
+      <c r="C22">
+        <v>4.88</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="0"/>
+        <v>-6.1099796334012722E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="C23">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="0"/>
+        <v>-2.6748971193415613E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="7">
+        <f>AVERAGE(B4:B23)</f>
+        <v>5.7629999999999999</v>
+      </c>
+      <c r="C24" s="7">
+        <f>AVERAGE(C4:C23)</f>
+        <v>5.6609999999999996</v>
+      </c>
+      <c r="D24" s="4">
+        <f>AVERAGE(D4:D23)</f>
+        <v>-2.9333417620090379E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26">
-        <v>5.18</v>
-      </c>
-      <c r="C26">
-        <v>6.15</v>
-      </c>
-      <c r="D26" s="5">
-        <f>(C26-B26)/B26</f>
-        <v>0.18725868725868738</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27">
-        <v>7.33</v>
-      </c>
-      <c r="C27">
-        <v>6.38</v>
-      </c>
-      <c r="D27" s="6">
-        <f t="shared" ref="D27:D34" si="1">(C27-B27)/B27</f>
-        <v>-0.12960436562073671</v>
-      </c>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>5.18</v>
+      </c>
+      <c r="C28">
+        <v>6.15</v>
+      </c>
+      <c r="D28" s="5">
+        <f>(C28-B28)/B28</f>
+        <v>0.18725868725868738</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>7.33</v>
+      </c>
+      <c r="C29">
+        <v>6.38</v>
+      </c>
+      <c r="D29" s="6">
+        <f t="shared" ref="D29:D37" si="1">(C29-B29)/B29</f>
+        <v>-0.12960436562073671</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>6</v>
       </c>
-      <c r="B28">
+      <c r="B30">
         <v>7.39</v>
       </c>
-      <c r="C28">
+      <c r="C30">
         <v>6.75</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D30" s="6">
         <f t="shared" si="1"/>
         <v>-8.66035182679296E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>8</v>
       </c>
-      <c r="B29">
+      <c r="B31">
         <v>5.6</v>
       </c>
-      <c r="C29">
+      <c r="C31">
         <v>6.79</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D31" s="5">
         <f t="shared" si="1"/>
         <v>0.21250000000000008</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>10</v>
       </c>
-      <c r="B30">
+      <c r="B32">
         <v>2.61</v>
       </c>
-      <c r="C30">
+      <c r="C32">
         <v>2.85</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D32" s="5">
         <f t="shared" si="1"/>
         <v>9.1954022988505829E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>12</v>
       </c>
-      <c r="B31">
+      <c r="B33">
         <v>6.15</v>
       </c>
-      <c r="C31">
+      <c r="C33">
         <v>9.33</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D33" s="5">
         <f t="shared" si="1"/>
         <v>0.51707317073170722</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>14</v>
       </c>
-      <c r="B32">
+      <c r="B34">
         <v>4.45</v>
       </c>
-      <c r="C32">
+      <c r="C34">
         <v>4.82</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D34" s="5">
         <f t="shared" si="1"/>
         <v>8.3146067415730357E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>16</v>
       </c>
-      <c r="B33">
+      <c r="B35">
         <v>3.72</v>
       </c>
-      <c r="C33">
+      <c r="C35">
         <v>7.05</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D35" s="5">
         <f t="shared" si="1"/>
         <v>0.89516129032258052</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>18</v>
       </c>
-      <c r="B34">
+      <c r="B36">
         <v>7.47</v>
       </c>
-      <c r="C34">
+      <c r="C36">
         <v>5.47</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D36" s="6">
         <f t="shared" si="1"/>
         <v>-0.2677376171352075</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="7">
-        <f>AVERAGE(B26:B34)</f>
-        <v>5.5444444444444443</v>
-      </c>
-      <c r="C35" s="7">
-        <f>AVERAGE(C26:C34)</f>
-        <v>6.1766666666666659</v>
-      </c>
-      <c r="D35" s="4">
-        <f>AVERAGE(D26:D34)</f>
-        <v>0.16701641529925973</v>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37">
+        <v>4.91</v>
+      </c>
+      <c r="C37">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="D37" s="6">
+        <f t="shared" si="1"/>
+        <v>-1.0183299389002001E-2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="7">
+        <f>AVERAGE(B28:B37)</f>
+        <v>5.4809999999999999</v>
+      </c>
+      <c r="C38" s="7">
+        <f>AVERAGE(C28:C37)</f>
+        <v>6.0449999999999999</v>
+      </c>
+      <c r="D38" s="4">
+        <f>AVERAGE(D28:D37)</f>
+        <v>0.14929644383043356</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39">
-        <v>5.41</v>
-      </c>
-      <c r="C39">
-        <v>5.99</v>
-      </c>
-      <c r="D39" s="5">
-        <f>(C39-B39)/B39</f>
-        <v>0.10720887245841036</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40">
-        <v>6.82</v>
-      </c>
-      <c r="C40">
-        <v>7.76</v>
-      </c>
-      <c r="D40" s="5">
-        <f t="shared" ref="D40:D47" si="2">(C40-B40)/B40</f>
-        <v>0.13782991202346034</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41">
-        <v>6.9</v>
-      </c>
-      <c r="C41">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="D41" s="5">
-        <f t="shared" si="2"/>
-        <v>0.29710144927536214</v>
-      </c>
+      <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>5.41</v>
+      </c>
+      <c r="C42">
+        <v>5.99</v>
+      </c>
+      <c r="D42" s="5">
+        <f>(C42-B42)/B42</f>
+        <v>0.10720887245841036</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>6.82</v>
+      </c>
+      <c r="C43">
+        <v>7.76</v>
+      </c>
+      <c r="D43" s="5">
+        <f t="shared" ref="D43:D51" si="2">(C43-B43)/B43</f>
+        <v>0.13782991202346034</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>6.9</v>
+      </c>
+      <c r="C44">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="D44" s="5">
+        <f t="shared" si="2"/>
+        <v>0.31159420289855078</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>8</v>
       </c>
-      <c r="B42">
+      <c r="B45">
         <v>4.8899999999999997</v>
       </c>
-      <c r="C42">
+      <c r="C45">
         <v>6.15</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D45" s="5">
         <f t="shared" si="2"/>
         <v>0.2576687116564419</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>10</v>
       </c>
-      <c r="B43">
+      <c r="B46">
         <v>2.1</v>
       </c>
-      <c r="C43">
+      <c r="C46">
         <v>2.33</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D46" s="5">
         <f t="shared" si="2"/>
         <v>0.10952380952380951</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>12</v>
       </c>
-      <c r="B44">
+      <c r="B47">
         <v>7.51</v>
       </c>
-      <c r="C44">
+      <c r="C47">
         <v>9.08</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D47" s="5">
         <f t="shared" si="2"/>
         <v>0.20905459387483361</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>14</v>
       </c>
-      <c r="B45">
+      <c r="B48">
         <v>4.22</v>
       </c>
-      <c r="C45">
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="D45" s="5">
+      <c r="C48">
+        <v>4.97</v>
+      </c>
+      <c r="D48" s="5">
         <f t="shared" si="2"/>
-        <v>6.1611374407583103E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+        <v>0.17772511848341233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>16</v>
       </c>
-      <c r="B46">
-        <v>2.89</v>
-      </c>
-      <c r="C46">
-        <v>6.11</v>
-      </c>
-      <c r="D46" s="5">
+      <c r="B49">
+        <v>3.07</v>
+      </c>
+      <c r="C49">
+        <v>6.25</v>
+      </c>
+      <c r="D49" s="5">
         <f t="shared" si="2"/>
-        <v>1.1141868512110726</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+        <v>1.0358306188925082</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>18</v>
       </c>
-      <c r="B47">
+      <c r="B50">
         <v>6.18</v>
       </c>
-      <c r="C47">
+      <c r="C50">
         <v>5.52</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D50" s="6">
         <f t="shared" si="2"/>
         <v>-0.10679611650485439</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B48" s="7">
-        <f>AVERAGE(B39:B47)</f>
-        <v>5.2133333333333338</v>
-      </c>
-      <c r="C48" s="7">
-        <f>AVERAGE(C39:C47)</f>
-        <v>6.2633333333333319</v>
-      </c>
-      <c r="D48" s="4">
-        <f>AVERAGE(D39:D47)</f>
-        <v>0.24304327310290214</v>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51">
+        <v>4.88</v>
+      </c>
+      <c r="C51">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="D51" s="6">
+        <f t="shared" si="2"/>
+        <v>-3.0737704918032679E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B52" s="7">
+        <f>AVERAGE(B42:B51)</f>
+        <v>5.1980000000000004</v>
+      </c>
+      <c r="C52" s="7">
+        <f>AVERAGE(C42:C51)</f>
+        <v>6.1829999999999998</v>
+      </c>
+      <c r="D52" s="4">
+        <f>AVERAGE(D42:D51)</f>
+        <v>0.22089020183885402</v>
       </c>
     </row>
   </sheetData>

--- a/Comparaison.xlsx
+++ b/Comparaison.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="500" windowWidth="23700" windowHeight="16280" tabRatio="500"/>
+    <workbookView xWindow="260" yWindow="500" windowWidth="26100" windowHeight="16280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -27,14 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
   <si>
     <t>xls</t>
   </si>
   <si>
-    <t>bis</t>
-  </si>
-  <si>
     <t>p1</t>
   </si>
   <si>
@@ -96,13 +93,41 @@
   </si>
   <si>
     <t>p10bis</t>
+  </si>
+  <si>
+    <t>Team infi</t>
+  </si>
+  <si>
+    <t>Oli</t>
+  </si>
+  <si>
+    <t>PYTHON</t>
+  </si>
+  <si>
+    <t>ISP + XLS</t>
+  </si>
+  <si>
+    <t>Tc99</t>
+  </si>
+  <si>
+    <t>Post Ho166</t>
+  </si>
+  <si>
+    <t>NC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -138,6 +163,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -147,7 +188,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -155,12 +196,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -169,12 +230,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="full_bordures" xfId="2"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -451,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D52"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="131" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -462,18 +532,37 @@
     <col min="4" max="4" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="H1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>5.18</v>
@@ -485,10 +574,20 @@
         <f>(C4-B4)/B4</f>
         <v>4.4401544401544486E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>5.18</v>
+      </c>
+      <c r="I4">
+        <v>5.79</v>
+      </c>
+      <c r="J4" s="5">
+        <f>(I4-H4)/H4</f>
+        <v>0.11776061776061783</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>6.15</v>
@@ -500,10 +599,20 @@
         <f t="shared" ref="D5:D23" si="0">(C5-B5)/B5</f>
         <v>-2.6016260162601647E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>6.15</v>
+      </c>
+      <c r="I5">
+        <v>6.62</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" ref="J5:J23" si="1">(I5-H5)/H5</f>
+        <v>7.6422764227642229E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>7.33</v>
@@ -515,10 +624,20 @@
         <f t="shared" si="0"/>
         <v>-6.9577080491132301E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>7.33</v>
+      </c>
+      <c r="I6">
+        <v>7.27</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="1"/>
+        <v>-8.1855388813097535E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>6.38</v>
@@ -530,10 +649,20 @@
         <f t="shared" si="0"/>
         <v>0.21630094043887146</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>6.38</v>
+      </c>
+      <c r="I7">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="1"/>
+        <v>0.41692789968652028</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>7.39</v>
@@ -545,10 +674,20 @@
         <f t="shared" si="0"/>
         <v>-6.6305818673883535E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>7.39</v>
+      </c>
+      <c r="I8">
+        <v>7.82</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="1"/>
+        <v>5.8186738836265309E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>6.75</v>
@@ -560,10 +699,20 @@
         <f t="shared" si="0"/>
         <v>0.32592592592592584</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>6.75</v>
+      </c>
+      <c r="I9">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="1"/>
+        <v>0.43703703703703695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>5.6</v>
@@ -575,10 +724,20 @@
         <f t="shared" si="0"/>
         <v>-0.12678571428571428</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>5.6</v>
+      </c>
+      <c r="I10">
+        <v>5.19</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="1"/>
+        <v>-7.3214285714285579E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>6.79</v>
@@ -590,10 +749,20 @@
         <f t="shared" si="0"/>
         <v>-9.425625920471277E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>6.79</v>
+      </c>
+      <c r="I11">
+        <v>6.92</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="1"/>
+        <v>1.9145802650957274E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>2.61</v>
@@ -605,10 +774,20 @@
         <f t="shared" si="0"/>
         <v>-0.19540229885057464</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>2.61</v>
+      </c>
+      <c r="I12">
+        <v>2.33</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.10727969348658997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>2.85</v>
@@ -620,10 +799,20 @@
         <f t="shared" si="0"/>
         <v>-0.18245614035087721</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>2.85</v>
+      </c>
+      <c r="I13">
+        <v>2.4</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.15789473684210531</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>6.15</v>
@@ -635,10 +824,20 @@
         <f t="shared" si="0"/>
         <v>0.2211382113821137</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <v>6.15</v>
+      </c>
+      <c r="I14">
+        <v>8.48</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="1"/>
+        <v>0.37886178861788616</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>9.33</v>
@@ -650,10 +849,20 @@
         <f t="shared" si="0"/>
         <v>-2.6795284030010719E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>9.33</v>
+      </c>
+      <c r="I15">
+        <v>9.43</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0718113612004249E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>4.45</v>
@@ -665,10 +874,20 @@
         <f t="shared" si="0"/>
         <v>-5.1685393258427061E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>4.45</v>
+      </c>
+      <c r="I16">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="J16" s="6">
+        <f t="shared" si="1"/>
+        <v>-8.7640449438202372E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>4.82</v>
@@ -680,10 +899,20 @@
         <f t="shared" si="0"/>
         <v>-7.0539419087136901E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>4.82</v>
+      </c>
+      <c r="I17">
+        <v>5.15</v>
+      </c>
+      <c r="J17" s="6">
+        <f t="shared" si="1"/>
+        <v>6.8464730290456438E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>3.72</v>
@@ -695,10 +924,20 @@
         <f t="shared" si="0"/>
         <v>-0.17473118279569902</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>3.72</v>
+      </c>
+      <c r="I18">
+        <v>2.65</v>
+      </c>
+      <c r="J18" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.28763440860215062</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>7.05</v>
@@ -710,10 +949,20 @@
         <f t="shared" si="0"/>
         <v>-0.11347517730496452</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>7.05</v>
+      </c>
+      <c r="I19">
+        <v>6.26</v>
+      </c>
+      <c r="J19" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.11205673758865249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>7.47</v>
@@ -725,10 +974,20 @@
         <f t="shared" si="0"/>
         <v>-0.17269076305220885</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>7.47</v>
+      </c>
+      <c r="I20">
+        <v>7.53</v>
+      </c>
+      <c r="J20" s="6">
+        <f t="shared" si="1"/>
+        <v>8.0321285140562918E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>5.47</v>
@@ -740,10 +999,20 @@
         <f t="shared" si="0"/>
         <v>9.140767824497225E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>5.47</v>
+      </c>
+      <c r="I21">
+        <v>5.7</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" si="1"/>
+        <v>4.2047531992687466E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>4.91</v>
@@ -751,14 +1020,24 @@
       <c r="C22">
         <v>4.88</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="6">
         <f t="shared" si="0"/>
         <v>-6.1099796334012722E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>4.91</v>
+      </c>
+      <c r="I22">
+        <v>5.09</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="1"/>
+        <v>3.6659877800407276E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>4.8600000000000003</v>
@@ -766,12 +1045,22 @@
       <c r="C23">
         <v>4.7300000000000004</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="6">
         <f t="shared" si="0"/>
         <v>-2.6748971193415613E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="I23">
+        <v>4.55</v>
+      </c>
+      <c r="J23" s="5">
+        <f t="shared" si="1"/>
+        <v>-6.3786008230452773E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" s="7">
         <f>AVERAGE(B4:B23)</f>
         <v>5.7629999999999999</v>
@@ -784,192 +1073,235 @@
         <f>AVERAGE(D4:D23)</f>
         <v>-2.9333417620090379E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="H24" s="7">
+        <f>AVERAGE(H4:H23)</f>
+        <v>5.7629999999999999</v>
+      </c>
+      <c r="I24" s="7">
+        <f>AVERAGE(I4:I23)</f>
+        <v>6.0990000000000002</v>
+      </c>
+      <c r="J24" s="4">
+        <f>AVERAGE(J4:J23)</f>
+        <v>3.862865861213944E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="2"/>
+      <c r="H27" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28">
+      <c r="D28" s="5"/>
+      <c r="H28">
         <v>5.18</v>
       </c>
-      <c r="C28">
+      <c r="I28">
         <v>6.15</v>
       </c>
-      <c r="D28" s="5">
-        <f>(C28-B28)/B28</f>
+      <c r="J28" s="5">
+        <f>(I28-H28)/H28</f>
         <v>0.18725868725868738</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="H29">
         <v>7.33</v>
       </c>
-      <c r="C29">
+      <c r="I29">
         <v>6.38</v>
       </c>
-      <c r="D29" s="6">
-        <f t="shared" ref="D29:D37" si="1">(C29-B29)/B29</f>
+      <c r="J29" s="6">
+        <f t="shared" ref="J29:J37" si="2">(I29-H29)/H29</f>
         <v>-0.12960436562073671</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="H30">
         <v>7.39</v>
       </c>
-      <c r="C30">
+      <c r="I30">
         <v>6.75</v>
       </c>
-      <c r="D30" s="6">
-        <f t="shared" si="1"/>
+      <c r="J30" s="6">
+        <f t="shared" si="2"/>
         <v>-8.66035182679296E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="H31">
         <v>5.6</v>
       </c>
-      <c r="C31">
+      <c r="I31">
         <v>6.79</v>
       </c>
-      <c r="D31" s="5">
-        <f t="shared" si="1"/>
+      <c r="J31" s="5">
+        <f t="shared" si="2"/>
         <v>0.21250000000000008</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="H32">
         <v>2.61</v>
       </c>
-      <c r="C32">
+      <c r="I32">
         <v>2.85</v>
       </c>
-      <c r="D32" s="5">
-        <f t="shared" si="1"/>
+      <c r="J32" s="5">
+        <f t="shared" si="2"/>
         <v>9.1954022988505829E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="H33">
         <v>6.15</v>
       </c>
-      <c r="C33">
+      <c r="I33">
         <v>9.33</v>
       </c>
-      <c r="D33" s="5">
-        <f t="shared" si="1"/>
+      <c r="J33" s="5">
+        <f t="shared" si="2"/>
         <v>0.51707317073170722</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34">
+        <v>13</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="H34">
         <v>4.45</v>
       </c>
-      <c r="C34">
+      <c r="I34">
         <v>4.82</v>
       </c>
-      <c r="D34" s="5">
-        <f t="shared" si="1"/>
+      <c r="J34" s="5">
+        <f t="shared" si="2"/>
         <v>8.3146067415730357E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35">
+        <v>15</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="H35">
         <v>3.72</v>
       </c>
-      <c r="C35">
+      <c r="I35">
         <v>7.05</v>
       </c>
-      <c r="D35" s="5">
-        <f t="shared" si="1"/>
+      <c r="J35" s="5">
+        <f t="shared" si="2"/>
         <v>0.89516129032258052</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36">
+        <v>17</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="H36">
         <v>7.47</v>
       </c>
-      <c r="C36">
+      <c r="I36">
         <v>5.47</v>
       </c>
-      <c r="D36" s="6">
-        <f t="shared" si="1"/>
+      <c r="J36" s="6">
+        <f t="shared" si="2"/>
         <v>-0.2677376171352075</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37">
+        <v>20</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="H37">
         <v>4.91</v>
       </c>
-      <c r="C37">
+      <c r="I37">
         <v>4.8600000000000003</v>
       </c>
-      <c r="D37" s="6">
-        <f t="shared" si="1"/>
+      <c r="J37" s="6">
+        <f t="shared" si="2"/>
         <v>-1.0183299389002001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="7">
-        <f>AVERAGE(B28:B37)</f>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="4"/>
+      <c r="H38" s="7">
+        <f>AVERAGE(H28:H37)</f>
         <v>5.4809999999999999</v>
       </c>
-      <c r="C38" s="7">
-        <f>AVERAGE(C28:C37)</f>
+      <c r="I38" s="7">
+        <f>AVERAGE(I28:I37)</f>
         <v>6.0449999999999999</v>
       </c>
-      <c r="D38" s="4">
-        <f>AVERAGE(D28:D37)</f>
+      <c r="J38" s="4">
+        <f>AVERAGE(J28:J37)</f>
         <v>0.14929644383043356</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="B41" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>1</v>
-      </c>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>2</v>
       </c>
       <c r="B42">
         <v>5.41</v>
@@ -981,10 +1313,27 @@
         <f>(C42-B42)/B42</f>
         <v>0.10720887245841036</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42">
+        <v>5.72</v>
+      </c>
+      <c r="F42" s="3">
+        <f>(E42-C42)/C42</f>
+        <v>-4.5075125208681212E-2</v>
+      </c>
+      <c r="H42">
+        <v>5.79</v>
+      </c>
+      <c r="I42">
+        <v>6.62</v>
+      </c>
+      <c r="J42" s="5">
+        <f>(I42-H42)/H42</f>
+        <v>0.14335060449050088</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43">
         <v>6.82</v>
@@ -993,13 +1342,23 @@
         <v>7.76</v>
       </c>
       <c r="D43" s="5">
-        <f t="shared" ref="D43:D51" si="2">(C43-B43)/B43</f>
+        <f t="shared" ref="D43:D51" si="3">(C43-B43)/B43</f>
         <v>0.13782991202346034</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H43">
+        <v>7.27</v>
+      </c>
+      <c r="I43">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="J43" s="5">
+        <f t="shared" ref="J43:J51" si="4">(I43-H43)/H43</f>
+        <v>0.24346629986244839</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44">
         <v>6.9</v>
@@ -1008,13 +1367,26 @@
         <v>9.0500000000000007</v>
       </c>
       <c r="D44" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.31159420289855078</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <v>8.98</v>
+      </c>
+      <c r="H44">
+        <v>7.82</v>
+      </c>
+      <c r="I44">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="J44" s="5">
+        <f t="shared" si="4"/>
+        <v>0.24040920716112518</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B45">
         <v>4.8899999999999997</v>
@@ -1023,13 +1395,23 @@
         <v>6.15</v>
       </c>
       <c r="D45" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2576687116564419</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H45">
+        <v>5.19</v>
+      </c>
+      <c r="I45">
+        <v>6.92</v>
+      </c>
+      <c r="J45" s="5">
+        <f t="shared" si="4"/>
+        <v>0.3333333333333332</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B46">
         <v>2.1</v>
@@ -1038,13 +1420,23 @@
         <v>2.33</v>
       </c>
       <c r="D46" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.10952380952380951</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H46">
+        <v>2.33</v>
+      </c>
+      <c r="I46">
+        <v>2.4</v>
+      </c>
+      <c r="J46" s="5">
+        <f t="shared" si="4"/>
+        <v>3.0042918454935553E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B47">
         <v>7.51</v>
@@ -1053,13 +1445,23 @@
         <v>9.08</v>
       </c>
       <c r="D47" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.20905459387483361</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H47">
+        <v>8.48</v>
+      </c>
+      <c r="I47">
+        <v>9.43</v>
+      </c>
+      <c r="J47" s="5">
+        <f t="shared" si="4"/>
+        <v>0.11202830188679236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B48">
         <v>4.22</v>
@@ -1068,13 +1470,23 @@
         <v>4.97</v>
       </c>
       <c r="D48" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.17772511848341233</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H48">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="I48">
+        <v>5.15</v>
+      </c>
+      <c r="J48" s="5">
+        <f t="shared" si="4"/>
+        <v>0.26847290640394111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B49">
         <v>3.07</v>
@@ -1083,13 +1495,23 @@
         <v>6.25</v>
       </c>
       <c r="D49" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0358306188925082</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H49">
+        <v>2.65</v>
+      </c>
+      <c r="I49">
+        <v>6.26</v>
+      </c>
+      <c r="J49" s="5">
+        <f t="shared" si="4"/>
+        <v>1.3622641509433961</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B50">
         <v>6.18</v>
@@ -1098,13 +1520,23 @@
         <v>5.52</v>
       </c>
       <c r="D50" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.10679611650485439</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H50">
+        <v>7.53</v>
+      </c>
+      <c r="I50">
+        <v>5.7</v>
+      </c>
+      <c r="J50" s="6">
+        <f t="shared" si="4"/>
+        <v>-0.24302788844621515</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B51">
         <v>4.88</v>
@@ -1113,11 +1545,21 @@
         <v>4.7300000000000004</v>
       </c>
       <c r="D51" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.0737704918032679E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H51">
+        <v>5.09</v>
+      </c>
+      <c r="I51">
+        <v>4.55</v>
+      </c>
+      <c r="J51" s="6">
+        <f t="shared" si="4"/>
+        <v>-0.10609037328094303</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B52" s="7">
         <f>AVERAGE(B42:B51)</f>
         <v>5.1980000000000004</v>
@@ -1130,8 +1572,24 @@
         <f>AVERAGE(D42:D51)</f>
         <v>0.22089020183885402</v>
       </c>
+      <c r="H52" s="7">
+        <f>AVERAGE(H42:H51)</f>
+        <v>5.6209999999999996</v>
+      </c>
+      <c r="I52" s="7">
+        <f>AVERAGE(I42:I51)</f>
+        <v>6.577</v>
+      </c>
+      <c r="J52" s="4">
+        <f>AVERAGE(J42:J51)</f>
+        <v>0.23842494608093148</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>